--- a/data/common/excel/product_blistered.xlsx
+++ b/data/common/excel/product_blistered.xlsx
@@ -196,7 +196,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -207,6 +207,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF127622"/>
+        <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
   </fills>
@@ -251,13 +257,21 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -280,7 +294,7 @@
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF127622"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
@@ -511,1762 +525,1762 @@
   </sheetPr>
   <dimension ref="A1:C1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A133" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="68.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="68.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="n">
         <v>21880</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="n">
         <v>15031</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="3" t="n">
         <v>3327</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="3" t="n">
         <v>3309</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="3" t="n">
         <v>3581</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="3" t="n">
         <v>3273</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="3" t="n">
         <v>3259</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="3" t="n">
         <v>3253</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>4062</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>4224</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>4255</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>4935</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>4931</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>4856</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <v>4855</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="1" t="n">
         <v>4826</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="1" t="n">
         <v>4759</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="1" t="n">
         <v>4890</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="1" t="n">
         <v>4949</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A21" s="1" t="n">
         <v>4948</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="A22" s="1" t="n">
         <v>7077</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+      <c r="A23" s="1" t="n">
         <v>8221</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+      <c r="A24" s="1" t="n">
         <v>7082</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+      <c r="A25" s="1" t="n">
         <v>7090</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+      <c r="A26" s="1" t="n">
         <v>7089</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+      <c r="A27" s="1" t="n">
         <v>7088</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+      <c r="A28" s="1" t="n">
         <v>1246</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+      <c r="A29" s="1" t="n">
         <v>3551</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C29" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+      <c r="A30" s="1" t="n">
         <v>3552</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C30" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+      <c r="A31" s="1" t="n">
         <v>3563</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C31" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+      <c r="A32" s="1" t="n">
         <v>3547</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="C32" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
+      <c r="A33" s="1" t="n">
         <v>3558</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="C33" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
+      <c r="A34" s="1" t="n">
         <v>1200</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="C34" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
+      <c r="A35" s="1" t="n">
         <v>1205</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="0" t="n">
+      <c r="C35" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
+      <c r="A36" s="1" t="n">
         <v>1202</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="0" t="n">
+      <c r="C36" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
+      <c r="A37" s="1" t="n">
         <v>1253</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="0" t="n">
+      <c r="C37" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
+      <c r="A38" s="1" t="n">
         <v>1252</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="0" t="n">
+      <c r="C38" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
+      <c r="A39" s="1" t="n">
         <v>1231</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="0" t="n">
+      <c r="C39" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
+      <c r="A40" s="1" t="n">
         <v>1237</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="0" t="n">
+      <c r="C40" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
+      <c r="A41" s="1" t="n">
         <v>6218</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="0" t="n">
+      <c r="C41" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
+      <c r="A42" s="1" t="n">
         <v>6219</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C42" s="0" t="n">
+      <c r="C42" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
+      <c r="A43" s="1" t="n">
         <v>1116</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C43" s="0" t="n">
+      <c r="C43" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
+      <c r="A44" s="1" t="n">
         <v>1113</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C44" s="0" t="n">
+      <c r="C44" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="n">
+      <c r="A45" s="1" t="n">
         <v>1115</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C45" s="0" t="n">
+      <c r="C45" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="n">
+      <c r="A46" s="1" t="n">
         <v>4934</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B46" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C46" s="0" t="n">
+      <c r="C46" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="n">
+      <c r="A47" s="1" t="n">
         <v>5724</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B47" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C47" s="0" t="n">
+      <c r="C47" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="n">
+      <c r="A48" s="1" t="n">
         <v>3595</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B48" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C48" s="0" t="n">
+      <c r="C48" s="1" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="n">
+      <c r="A49" s="1" t="n">
         <v>3628</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="B49" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C49" s="0" t="n">
+      <c r="C49" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="n">
+      <c r="A50" s="1" t="n">
         <v>3248</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="B50" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C50" s="0" t="n">
+      <c r="C50" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="n">
+      <c r="A51" s="1" t="n">
         <v>3866</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="B51" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C51" s="0" t="n">
+      <c r="C51" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="n">
+      <c r="A52" s="1" t="n">
         <v>3748</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="B52" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C52" s="0" t="n">
+      <c r="C52" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="n">
+      <c r="A53" s="1" t="n">
         <v>3749</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="B53" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C53" s="0" t="n">
+      <c r="C53" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="n">
+      <c r="A54" s="1" t="n">
         <v>3750</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B54" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C54" s="0" t="n">
+      <c r="C54" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="n">
+      <c r="A55" s="1" t="n">
         <v>3784</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="B55" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C55" s="0" t="n">
+      <c r="C55" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="n">
+      <c r="A56" s="1" t="n">
         <v>3785</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="B56" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="0" t="n">
+      <c r="C56" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="n">
+      <c r="A57" s="1" t="n">
         <v>3782</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="B57" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C57" s="0" t="n">
+      <c r="C57" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="n">
+      <c r="A58" s="1" t="n">
         <v>1229</v>
       </c>
-      <c r="B58" s="0" t="s">
+      <c r="B58" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C58" s="0" t="n">
+      <c r="C58" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="n">
+      <c r="A59" s="1" t="n">
         <v>3554</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="B59" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C59" s="0" t="n">
+      <c r="C59" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="n">
+      <c r="A60" s="1" t="n">
         <v>1029</v>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="B60" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C60" s="0" t="n">
+      <c r="C60" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="n">
+      <c r="A61" s="1" t="n">
         <v>1027</v>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="B61" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C61" s="0" t="n">
+      <c r="C61" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="n">
+      <c r="A62" s="1" t="n">
         <v>1413</v>
       </c>
-      <c r="B62" s="0" t="s">
+      <c r="B62" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C62" s="0" t="n">
+      <c r="C62" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="n">
+      <c r="A63" s="1" t="n">
         <v>3564</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="B63" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C63" s="0" t="n">
+      <c r="C63" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="n">
+      <c r="A64" s="1" t="n">
         <v>1058</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="B64" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C64" s="0" t="n">
+      <c r="C64" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="n">
+      <c r="A65" s="1" t="n">
         <v>1204</v>
       </c>
-      <c r="B65" s="0" t="s">
+      <c r="B65" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C65" s="0" t="n">
+      <c r="C65" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="n">
+      <c r="A66" s="1" t="n">
         <v>1085</v>
       </c>
-      <c r="B66" s="0" t="s">
+      <c r="B66" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C66" s="0" t="n">
+      <c r="C66" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="n">
+      <c r="A67" s="1" t="n">
         <v>3570</v>
       </c>
-      <c r="B67" s="0" t="s">
+      <c r="B67" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C67" s="0" t="n">
+      <c r="C67" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="n">
+      <c r="A68" s="1" t="n">
         <v>3569</v>
       </c>
-      <c r="B68" s="0" t="s">
+      <c r="B68" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C68" s="0" t="n">
+      <c r="C68" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="n">
+      <c r="A69" s="1" t="n">
         <v>3567</v>
       </c>
-      <c r="B69" s="0" t="s">
+      <c r="B69" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C69" s="0" t="n">
+      <c r="C69" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="n">
+      <c r="A70" s="1" t="n">
         <v>3544</v>
       </c>
-      <c r="B70" s="0" t="s">
+      <c r="B70" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C70" s="0" t="n">
+      <c r="C70" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="n">
+      <c r="A71" s="1" t="n">
         <v>3545</v>
       </c>
-      <c r="B71" s="0" t="s">
+      <c r="B71" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C71" s="0" t="n">
+      <c r="C71" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="n">
+      <c r="A72" s="1" t="n">
         <v>5321</v>
       </c>
-      <c r="B72" s="0" t="s">
+      <c r="B72" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C72" s="0" t="n">
+      <c r="C72" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="n">
+      <c r="A73" s="1" t="n">
         <v>5356</v>
       </c>
-      <c r="B73" s="0" t="s">
+      <c r="B73" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C73" s="0" t="n">
+      <c r="C73" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="n">
+      <c r="A74" s="1" t="n">
         <v>5357</v>
       </c>
-      <c r="B74" s="0" t="s">
+      <c r="B74" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C74" s="0" t="n">
+      <c r="C74" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="n">
+      <c r="A75" s="1" t="n">
         <v>4894</v>
       </c>
-      <c r="B75" s="0" t="s">
+      <c r="B75" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C75" s="0" t="n">
+      <c r="C75" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
+      <c r="A76" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B76" s="0" t="s">
+      <c r="B76" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C76" s="0" t="n">
+      <c r="C76" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
+      <c r="A77" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B77" s="0" t="s">
+      <c r="B77" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C77" s="0" t="n">
+      <c r="C77" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="n">
+      <c r="A78" s="1" t="n">
         <v>4879</v>
       </c>
-      <c r="B78" s="0" t="s">
+      <c r="B78" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C78" s="0" t="n">
+      <c r="C78" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="n">
+      <c r="A79" s="1" t="n">
         <v>4828</v>
       </c>
-      <c r="B79" s="0" t="s">
+      <c r="B79" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C79" s="0" t="n">
+      <c r="C79" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="n">
+      <c r="A80" s="1" t="n">
         <v>4823</v>
       </c>
-      <c r="B80" s="0" t="s">
+      <c r="B80" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C80" s="0" t="n">
+      <c r="C80" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="n">
+      <c r="A81" s="1" t="n">
         <v>4873</v>
       </c>
-      <c r="B81" s="0" t="s">
+      <c r="B81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C81" s="0" t="n">
+      <c r="C81" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="n">
+      <c r="A82" s="1" t="n">
         <v>6343</v>
       </c>
-      <c r="B82" s="0" t="s">
+      <c r="B82" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C82" s="0" t="n">
+      <c r="C82" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="n">
+      <c r="A83" s="1" t="n">
         <v>4892</v>
       </c>
-      <c r="B83" s="0" t="s">
+      <c r="B83" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C83" s="0" t="n">
+      <c r="C83" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="n">
+      <c r="A84" s="1" t="n">
         <v>4877</v>
       </c>
-      <c r="B84" s="0" t="s">
+      <c r="B84" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C84" s="0" t="n">
+      <c r="C84" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="n">
+      <c r="A85" s="1" t="n">
         <v>4803</v>
       </c>
-      <c r="B85" s="0" t="s">
+      <c r="B85" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C85" s="0" t="n">
+      <c r="C85" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
+      <c r="A86" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B86" s="0" t="s">
+      <c r="B86" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C86" s="0" t="n">
+      <c r="C86" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="n">
+      <c r="A87" s="1" t="n">
         <v>4924</v>
       </c>
-      <c r="B87" s="0" t="s">
+      <c r="B87" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C87" s="0" t="n">
+      <c r="C87" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="n">
+      <c r="A88" s="1" t="n">
         <v>4802</v>
       </c>
-      <c r="B88" s="0" t="s">
+      <c r="B88" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C88" s="0" t="n">
+      <c r="C88" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="n">
+      <c r="A89" s="1" t="n">
         <v>4832</v>
       </c>
-      <c r="B89" s="0" t="s">
+      <c r="B89" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C89" s="0" t="n">
+      <c r="C89" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="n">
+      <c r="A90" s="1" t="n">
         <v>4824</v>
       </c>
-      <c r="B90" s="0" t="s">
+      <c r="B90" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C90" s="0" t="n">
+      <c r="C90" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="n">
+      <c r="A91" s="1" t="n">
         <v>4863</v>
       </c>
-      <c r="B91" s="0" t="s">
+      <c r="B91" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C91" s="0" t="n">
+      <c r="C91" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="n">
+      <c r="A92" s="1" t="n">
         <v>4819</v>
       </c>
-      <c r="B92" s="0" t="s">
+      <c r="B92" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C92" s="0" t="n">
+      <c r="C92" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="n">
+      <c r="A93" s="1" t="n">
         <v>4864</v>
       </c>
-      <c r="B93" s="0" t="s">
+      <c r="B93" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C93" s="0" t="n">
+      <c r="C93" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="n">
+      <c r="A94" s="1" t="n">
         <v>4869</v>
       </c>
-      <c r="B94" s="0" t="s">
+      <c r="B94" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C94" s="0" t="n">
+      <c r="C94" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="n">
+      <c r="A95" s="1" t="n">
         <v>6292</v>
       </c>
-      <c r="B95" s="0" t="s">
+      <c r="B95" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C95" s="0" t="n">
+      <c r="C95" s="1" t="n">
         <v>34</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="n">
+      <c r="A96" s="1" t="n">
         <v>3550</v>
       </c>
-      <c r="B96" s="0" t="s">
+      <c r="B96" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C96" s="0" t="n">
+      <c r="C96" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="n">
+      <c r="A97" s="1" t="n">
         <v>7517</v>
       </c>
-      <c r="B97" s="0" t="s">
+      <c r="B97" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C97" s="0" t="n">
+      <c r="C97" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="n">
+      <c r="A98" s="1" t="n">
         <v>211210</v>
       </c>
-      <c r="B98" s="0" t="s">
+      <c r="B98" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C98" s="0" t="n">
+      <c r="C98" s="1" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="n">
+      <c r="A99" s="1" t="n">
         <v>7501</v>
       </c>
-      <c r="B99" s="0" t="s">
+      <c r="B99" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C99" s="0" t="n">
+      <c r="C99" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="n">
+      <c r="A100" s="1" t="n">
         <v>4793</v>
       </c>
-      <c r="B100" s="0" t="s">
+      <c r="B100" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C100" s="0" t="n">
+      <c r="C100" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="n">
+      <c r="A101" s="1" t="n">
         <v>3743</v>
       </c>
-      <c r="B101" s="0" t="s">
+      <c r="B101" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C101" s="0" t="n">
+      <c r="C101" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="n">
+      <c r="A102" s="1" t="n">
         <v>3744</v>
       </c>
-      <c r="B102" s="0" t="s">
+      <c r="B102" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C102" s="0" t="n">
+      <c r="C102" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="n">
+      <c r="A103" s="1" t="n">
         <v>3745</v>
       </c>
-      <c r="B103" s="0" t="s">
+      <c r="B103" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C103" s="0" t="n">
+      <c r="C103" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="n">
+      <c r="A104" s="1" t="n">
         <v>3746</v>
       </c>
-      <c r="B104" s="0" t="s">
+      <c r="B104" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C104" s="0" t="n">
+      <c r="C104" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="n">
+      <c r="A105" s="1" t="n">
         <v>3787</v>
       </c>
-      <c r="B105" s="0" t="s">
+      <c r="B105" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C105" s="0" t="n">
+      <c r="C105" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="n">
+      <c r="A106" s="1" t="n">
         <v>702182</v>
       </c>
-      <c r="B106" s="0" t="s">
+      <c r="B106" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C106" s="0" t="n">
+      <c r="C106" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="n">
+      <c r="A107" s="1" t="n">
         <v>702185</v>
       </c>
-      <c r="B107" s="0" t="s">
+      <c r="B107" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C107" s="0" t="n">
+      <c r="C107" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="n">
+      <c r="A108" s="1" t="n">
         <v>702187</v>
       </c>
-      <c r="B108" s="0" t="s">
+      <c r="B108" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C108" s="0" t="n">
+      <c r="C108" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="n">
+      <c r="A109" s="1" t="n">
         <v>702184</v>
       </c>
-      <c r="B109" s="0" t="s">
+      <c r="B109" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C109" s="0" t="n">
+      <c r="C109" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="n">
+      <c r="A110" s="1" t="n">
         <v>702183</v>
       </c>
-      <c r="B110" s="0" t="s">
+      <c r="B110" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C110" s="0" t="n">
+      <c r="C110" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="n">
+      <c r="A111" s="1" t="n">
         <v>702180</v>
       </c>
-      <c r="B111" s="0" t="s">
+      <c r="B111" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C111" s="0" t="n">
+      <c r="C111" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="n">
+      <c r="A112" s="1" t="n">
         <v>702188</v>
       </c>
-      <c r="B112" s="0" t="s">
+      <c r="B112" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C112" s="0" t="n">
+      <c r="C112" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="n">
+      <c r="A113" s="1" t="n">
         <v>702189</v>
       </c>
-      <c r="B113" s="0" t="s">
+      <c r="B113" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C113" s="0" t="n">
+      <c r="C113" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="n">
+      <c r="A114" s="1" t="n">
         <v>1091</v>
       </c>
-      <c r="B114" s="0" t="s">
+      <c r="B114" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C114" s="0" t="n">
+      <c r="C114" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="n">
+      <c r="A115" s="1" t="n">
         <v>1093</v>
       </c>
-      <c r="B115" s="0" t="s">
+      <c r="B115" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C115" s="0" t="n">
+      <c r="C115" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="n">
+      <c r="A116" s="1" t="n">
         <v>1278</v>
       </c>
-      <c r="B116" s="0" t="s">
+      <c r="B116" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C116" s="0" t="n">
+      <c r="C116" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="n">
+      <c r="A117" s="1" t="n">
         <v>1280</v>
       </c>
-      <c r="B117" s="0" t="s">
+      <c r="B117" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C117" s="0" t="n">
+      <c r="C117" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="n">
+      <c r="A118" s="1" t="n">
         <v>1070</v>
       </c>
-      <c r="B118" s="0" t="s">
+      <c r="B118" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C118" s="0" t="n">
+      <c r="C118" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="n">
+      <c r="A119" s="1" t="n">
         <v>1193</v>
       </c>
-      <c r="B119" s="0" t="s">
+      <c r="B119" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C119" s="0" t="n">
+      <c r="C119" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="n">
+      <c r="A120" s="1" t="n">
         <v>1032</v>
       </c>
-      <c r="B120" s="0" t="s">
+      <c r="B120" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C120" s="0" t="n">
+      <c r="C120" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="n">
+      <c r="A121" s="1" t="n">
         <v>1274</v>
       </c>
-      <c r="B121" s="0" t="s">
+      <c r="B121" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C121" s="0" t="n">
+      <c r="C121" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="n">
+      <c r="A122" s="1" t="n">
         <v>1275</v>
       </c>
-      <c r="B122" s="0" t="s">
+      <c r="B122" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C122" s="0" t="n">
+      <c r="C122" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="n">
+      <c r="A123" s="1" t="n">
         <v>1018</v>
       </c>
-      <c r="B123" s="0" t="s">
+      <c r="B123" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C123" s="0" t="n">
+      <c r="C123" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="n">
+      <c r="A124" s="1" t="n">
         <v>1197</v>
       </c>
-      <c r="B124" s="0" t="s">
+      <c r="B124" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C124" s="0" t="n">
+      <c r="C124" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="n">
+      <c r="A125" s="1" t="n">
         <v>1102</v>
       </c>
-      <c r="B125" s="0" t="s">
+      <c r="B125" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C125" s="0" t="n">
+      <c r="C125" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="n">
+      <c r="A126" s="1" t="n">
         <v>1111</v>
       </c>
-      <c r="B126" s="0" t="s">
+      <c r="B126" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C126" s="0" t="n">
+      <c r="C126" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="n">
+      <c r="A127" s="1" t="n">
         <v>1127</v>
       </c>
-      <c r="B127" s="0" t="s">
+      <c r="B127" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C127" s="0" t="n">
+      <c r="C127" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="n">
+      <c r="A128" s="1" t="n">
         <v>1128</v>
       </c>
-      <c r="B128" s="0" t="s">
+      <c r="B128" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C128" s="0" t="n">
+      <c r="C128" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="n">
+      <c r="A129" s="1" t="n">
         <v>5370</v>
       </c>
-      <c r="B129" s="0" t="s">
+      <c r="B129" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C129" s="0" t="n">
+      <c r="C129" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="n">
+      <c r="A130" s="1" t="n">
         <v>5369</v>
       </c>
-      <c r="B130" s="0" t="s">
+      <c r="B130" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C130" s="0" t="n">
+      <c r="C130" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0" t="n">
+      <c r="A131" s="1" t="n">
         <v>453</v>
       </c>
-      <c r="B131" s="0" t="s">
+      <c r="B131" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C131" s="0" t="n">
+      <c r="C131" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="n">
+      <c r="A132" s="1" t="n">
         <v>465</v>
       </c>
-      <c r="B132" s="0" t="s">
+      <c r="B132" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C132" s="0" t="n">
+      <c r="C132" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0" t="n">
+      <c r="A133" s="1" t="n">
         <v>5702</v>
       </c>
-      <c r="B133" s="0" t="s">
+      <c r="B133" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C133" s="0" t="n">
+      <c r="C133" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0" t="n">
+      <c r="A134" s="1" t="n">
         <v>5716</v>
       </c>
-      <c r="B134" s="0" t="s">
+      <c r="B134" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C134" s="0" t="n">
+      <c r="C134" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0" t="n">
+      <c r="A135" s="1" t="n">
         <v>5382</v>
       </c>
-      <c r="B135" s="0" t="s">
+      <c r="B135" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C135" s="0" t="n">
+      <c r="C135" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="0" t="n">
+      <c r="A136" s="1" t="n">
         <v>5687</v>
       </c>
-      <c r="B136" s="0" t="s">
+      <c r="B136" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C136" s="0" t="n">
+      <c r="C136" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="0" t="n">
+      <c r="A137" s="1" t="n">
         <v>1155</v>
       </c>
-      <c r="B137" s="0" t="s">
+      <c r="B137" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C137" s="0" t="n">
+      <c r="C137" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0" t="n">
+      <c r="A138" s="1" t="n">
         <v>1117</v>
       </c>
-      <c r="B138" s="0" t="s">
+      <c r="B138" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C138" s="0" t="n">
+      <c r="C138" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0" t="n">
+      <c r="A139" s="1" t="n">
         <v>1118</v>
       </c>
-      <c r="B139" s="0" t="s">
+      <c r="B139" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C139" s="0" t="n">
+      <c r="C139" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="0" t="n">
+      <c r="A140" s="1" t="n">
         <v>1154</v>
       </c>
-      <c r="B140" s="0" t="s">
+      <c r="B140" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C140" s="0" t="n">
+      <c r="C140" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0" t="n">
+      <c r="A141" s="1" t="n">
         <v>1162</v>
       </c>
-      <c r="B141" s="0" t="s">
+      <c r="B141" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C141" s="0" t="n">
+      <c r="C141" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="0" t="n">
+      <c r="A142" s="1" t="n">
         <v>1153</v>
       </c>
-      <c r="B142" s="0" t="s">
+      <c r="B142" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C142" s="0" t="n">
+      <c r="C142" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="0" t="n">
+      <c r="A143" s="1" t="n">
         <v>1133</v>
       </c>
-      <c r="B143" s="0" t="s">
+      <c r="B143" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C143" s="0" t="n">
+      <c r="C143" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="0" t="n">
+      <c r="A144" s="1" t="n">
         <v>1125</v>
       </c>
-      <c r="B144" s="0" t="s">
+      <c r="B144" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C144" s="0" t="n">
+      <c r="C144" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="0" t="n">
+      <c r="A145" s="1" t="n">
         <v>1130</v>
       </c>
-      <c r="B145" s="0" t="s">
+      <c r="B145" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C145" s="0" t="n">
+      <c r="C145" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="0" t="n">
+      <c r="A146" s="1" t="n">
         <v>1208</v>
       </c>
-      <c r="B146" s="0" t="s">
+      <c r="B146" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C146" s="0" t="n">
+      <c r="C146" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="0" t="n">
+      <c r="A147" s="1" t="n">
         <v>1209</v>
       </c>
-      <c r="B147" s="0" t="s">
+      <c r="B147" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C147" s="0" t="n">
+      <c r="C147" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="0" t="n">
+      <c r="A148" s="1" t="n">
         <v>5515</v>
       </c>
-      <c r="B148" s="0" t="s">
+      <c r="B148" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C148" s="0" t="n">
+      <c r="C148" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="0" t="n">
+      <c r="A149" s="1" t="n">
         <v>5514</v>
       </c>
-      <c r="B149" s="0" t="s">
+      <c r="B149" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C149" s="0" t="n">
+      <c r="C149" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="0" t="n">
+      <c r="A150" s="1" t="n">
         <v>5508</v>
       </c>
-      <c r="B150" s="0" t="s">
+      <c r="B150" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C150" s="0" t="n">
+      <c r="C150" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="0" t="n">
+      <c r="A151" s="1" t="n">
         <v>5509</v>
       </c>
-      <c r="B151" s="0" t="s">
+      <c r="B151" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C151" s="0" t="n">
+      <c r="C151" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="0" t="n">
+      <c r="A152" s="1" t="n">
         <v>5526</v>
       </c>
-      <c r="B152" s="0" t="s">
+      <c r="B152" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C152" s="0" t="n">
+      <c r="C152" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="0" t="n">
+      <c r="A153" s="1" t="n">
         <v>5419</v>
       </c>
-      <c r="B153" s="0" t="s">
+      <c r="B153" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C153" s="0" t="n">
+      <c r="C153" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="0" t="n">
+      <c r="A154" s="1" t="n">
         <v>5425</v>
       </c>
-      <c r="B154" s="0" t="s">
+      <c r="B154" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C154" s="0" t="n">
+      <c r="C154" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="0" t="n">
+      <c r="A155" s="1" t="n">
         <v>5464</v>
       </c>
-      <c r="B155" s="0" t="s">
+      <c r="B155" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C155" s="0" t="n">
+      <c r="C155" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="0" t="n">
+      <c r="A156" s="1" t="n">
         <v>5561</v>
       </c>
-      <c r="B156" s="0" t="s">
+      <c r="B156" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C156" s="0" t="n">
+      <c r="C156" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="0" t="n">
+      <c r="A157" s="1" t="n">
         <v>1195</v>
       </c>
-      <c r="B157" s="0" t="s">
+      <c r="B157" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C157" s="0" t="n">
+      <c r="C157" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="0" t="n">
+      <c r="A158" s="1" t="n">
         <v>1196</v>
       </c>
-      <c r="B158" s="0" t="s">
+      <c r="B158" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C158" s="0" t="n">
+      <c r="C158" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="0" t="n">
+      <c r="A159" s="1" t="n">
         <v>1243</v>
       </c>
-      <c r="B159" s="0" t="s">
+      <c r="B159" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C159" s="0" t="n">
+      <c r="C159" s="1" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/common/excel/product_blistered.xlsx
+++ b/data/common/excel/product_blistered.xlsx
@@ -164,7 +164,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,8 +195,15 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -213,6 +220,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF127622"/>
         <bgColor rgb="FF008080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8D281E"/>
+        <bgColor rgb="FF993366"/>
       </patternFill>
     </fill>
   </fills>
@@ -257,7 +270,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -271,6 +284,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -337,7 +362,7 @@
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF8D281E"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -525,8 +550,8 @@
   </sheetPr>
   <dimension ref="A1:C1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A133" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B156" activeCellId="0" sqref="B156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -635,10 +660,10 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+      <c r="A10" s="3" t="n">
         <v>4062</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="1" t="n">
@@ -646,10 +671,10 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="3" t="n">
         <v>4224</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="1" t="n">
@@ -657,10 +682,10 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+      <c r="A12" s="3" t="n">
         <v>4255</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="1" t="n">
@@ -668,10 +693,10 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+      <c r="A13" s="3" t="n">
         <v>4935</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="1" t="n">
@@ -679,10 +704,10 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+      <c r="A14" s="3" t="n">
         <v>4931</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="1" t="n">
@@ -690,10 +715,10 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+      <c r="A15" s="3" t="n">
         <v>4856</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="1" t="n">
@@ -701,10 +726,10 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+      <c r="A16" s="3" t="n">
         <v>4855</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="1" t="n">
@@ -712,10 +737,10 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+      <c r="A17" s="3" t="n">
         <v>4826</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="1" t="n">
@@ -723,10 +748,10 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+      <c r="A18" s="3" t="n">
         <v>4759</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="1" t="n">
@@ -734,10 +759,10 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+      <c r="A19" s="3" t="n">
         <v>4890</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="1" t="n">
@@ -745,10 +770,10 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+      <c r="A20" s="3" t="n">
         <v>4949</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="1" t="n">
@@ -756,10 +781,10 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+      <c r="A21" s="3" t="n">
         <v>4948</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C21" s="1" t="n">
@@ -767,10 +792,10 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+      <c r="A22" s="3" t="n">
         <v>7077</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="1" t="n">
@@ -778,10 +803,10 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
+      <c r="A23" s="3" t="n">
         <v>8221</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="1" t="n">
@@ -789,21 +814,21 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
+      <c r="A24" s="3" t="n">
         <v>7082</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C24" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4" t="n">
         <v>7090</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C25" s="1" t="n">
@@ -811,10 +836,10 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
+      <c r="A26" s="3" t="n">
         <v>7089</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C26" s="1" t="n">
@@ -822,10 +847,10 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
+      <c r="A27" s="3" t="n">
         <v>7088</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C27" s="1" t="n">
@@ -833,10 +858,10 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
+      <c r="A28" s="3" t="n">
         <v>1246</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="1" t="n">
@@ -844,10 +869,10 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
+      <c r="A29" s="3" t="n">
         <v>3551</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C29" s="1" t="n">
@@ -855,10 +880,10 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
+      <c r="A30" s="3" t="n">
         <v>3552</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C30" s="1" t="n">
@@ -866,10 +891,10 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
+      <c r="A31" s="3" t="n">
         <v>3563</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C31" s="1" t="n">
@@ -877,10 +902,10 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
+      <c r="A32" s="3" t="n">
         <v>3547</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C32" s="1" t="n">
@@ -888,10 +913,10 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
+      <c r="A33" s="3" t="n">
         <v>3558</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C33" s="1" t="n">
@@ -899,10 +924,10 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
+      <c r="A34" s="3" t="n">
         <v>1200</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C34" s="1" t="n">
@@ -910,10 +935,10 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
+      <c r="A35" s="3" t="n">
         <v>1205</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C35" s="1" t="n">
@@ -921,10 +946,10 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
+      <c r="A36" s="3" t="n">
         <v>1202</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C36" s="1" t="n">
@@ -932,10 +957,10 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
+      <c r="A37" s="3" t="n">
         <v>1253</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C37" s="1" t="n">
@@ -943,10 +968,10 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
+      <c r="A38" s="3" t="n">
         <v>1252</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C38" s="1" t="n">
@@ -954,10 +979,10 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="n">
+      <c r="A39" s="3" t="n">
         <v>1231</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C39" s="1" t="n">
@@ -965,10 +990,10 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="n">
+      <c r="A40" s="3" t="n">
         <v>1237</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C40" s="1" t="n">
@@ -976,10 +1001,10 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="n">
+      <c r="A41" s="3" t="n">
         <v>6218</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C41" s="1" t="n">
@@ -987,10 +1012,10 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="n">
+      <c r="A42" s="3" t="n">
         <v>6219</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C42" s="1" t="n">
@@ -998,10 +1023,10 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="n">
+      <c r="A43" s="3" t="n">
         <v>1116</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C43" s="1" t="n">
@@ -1009,10 +1034,10 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="n">
+      <c r="A44" s="3" t="n">
         <v>1113</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C44" s="1" t="n">
@@ -1020,10 +1045,10 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="n">
+      <c r="A45" s="3" t="n">
         <v>1115</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C45" s="1" t="n">
@@ -1031,10 +1056,10 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="n">
+      <c r="A46" s="3" t="n">
         <v>4934</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C46" s="1" t="n">
@@ -1042,10 +1067,10 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="n">
+      <c r="A47" s="3" t="n">
         <v>5724</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C47" s="1" t="n">
@@ -1053,10 +1078,10 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="n">
+      <c r="A48" s="3" t="n">
         <v>3595</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C48" s="1" t="n">
@@ -1064,10 +1089,10 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="n">
+      <c r="A49" s="3" t="n">
         <v>3628</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C49" s="1" t="n">
@@ -1075,10 +1100,10 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="n">
+      <c r="A50" s="3" t="n">
         <v>3248</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C50" s="1" t="n">
@@ -1086,10 +1111,10 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="n">
+      <c r="A51" s="3" t="n">
         <v>3866</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C51" s="1" t="n">
@@ -1097,10 +1122,10 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="n">
+      <c r="A52" s="3" t="n">
         <v>3748</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C52" s="1" t="n">
@@ -1108,10 +1133,10 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="n">
+      <c r="A53" s="3" t="n">
         <v>3749</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C53" s="1" t="n">
@@ -1119,10 +1144,10 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="n">
+      <c r="A54" s="3" t="n">
         <v>3750</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C54" s="1" t="n">
@@ -1130,10 +1155,10 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="n">
+      <c r="A55" s="3" t="n">
         <v>3784</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C55" s="1" t="n">
@@ -1141,10 +1166,10 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="n">
+      <c r="A56" s="3" t="n">
         <v>3785</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C56" s="1" t="n">
@@ -1152,10 +1177,10 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="n">
+      <c r="A57" s="3" t="n">
         <v>3782</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C57" s="1" t="n">
@@ -1163,10 +1188,10 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="n">
+      <c r="A58" s="3" t="n">
         <v>1229</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C58" s="1" t="n">
@@ -1174,10 +1199,10 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="n">
+      <c r="A59" s="3" t="n">
         <v>3554</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C59" s="1" t="n">
@@ -1185,10 +1210,10 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="n">
+      <c r="A60" s="5" t="n">
         <v>1029</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C60" s="1" t="n">
@@ -1196,10 +1221,10 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="n">
+      <c r="A61" s="5" t="n">
         <v>1027</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C61" s="1" t="n">
@@ -1207,10 +1232,10 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="n">
+      <c r="A62" s="3" t="n">
         <v>1413</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C62" s="1" t="n">
@@ -1218,10 +1243,10 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="n">
+      <c r="A63" s="5" t="n">
         <v>3564</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C63" s="1" t="n">
@@ -1229,10 +1254,10 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="n">
+      <c r="A64" s="5" t="n">
         <v>1058</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C64" s="1" t="n">
@@ -1240,10 +1265,10 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="n">
+      <c r="A65" s="5" t="n">
         <v>1204</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C65" s="1" t="n">
@@ -1251,10 +1276,10 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="n">
+      <c r="A66" s="5" t="n">
         <v>1085</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C66" s="1" t="n">
@@ -1262,10 +1287,10 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="n">
+      <c r="A67" s="3" t="n">
         <v>3570</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C67" s="1" t="n">
@@ -1273,10 +1298,10 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="n">
+      <c r="A68" s="3" t="n">
         <v>3569</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C68" s="1" t="n">
@@ -1284,10 +1309,10 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="n">
+      <c r="A69" s="3" t="n">
         <v>3567</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C69" s="1" t="n">
@@ -1295,10 +1320,10 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="n">
+      <c r="A70" s="3" t="n">
         <v>3544</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C70" s="1" t="n">
@@ -1306,10 +1331,10 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="n">
+      <c r="A71" s="3" t="n">
         <v>3545</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C71" s="1" t="n">
@@ -1317,10 +1342,10 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="n">
+      <c r="A72" s="5" t="n">
         <v>5321</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C72" s="1" t="n">
@@ -1328,10 +1353,10 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="n">
+      <c r="A73" s="3" t="n">
         <v>5356</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C73" s="1" t="n">
@@ -1339,10 +1364,10 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1" t="n">
+      <c r="A74" s="5" t="n">
         <v>5357</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C74" s="1" t="n">
@@ -1350,10 +1375,10 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="n">
+      <c r="A75" s="3" t="n">
         <v>4894</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C75" s="1" t="n">
@@ -1361,10 +1386,10 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C76" s="1" t="n">
@@ -1372,10 +1397,10 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C77" s="1" t="n">
@@ -1383,10 +1408,10 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1" t="n">
+      <c r="A78" s="3" t="n">
         <v>4879</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C78" s="1" t="n">
@@ -1394,10 +1419,10 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="n">
+      <c r="A79" s="3" t="n">
         <v>4828</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C79" s="1" t="n">
@@ -1405,10 +1430,10 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="n">
+      <c r="A80" s="3" t="n">
         <v>4823</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C80" s="1" t="n">
@@ -1416,10 +1441,10 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1" t="n">
+      <c r="A81" s="3" t="n">
         <v>4873</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C81" s="1" t="n">
@@ -1427,10 +1452,10 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="n">
+      <c r="A82" s="3" t="n">
         <v>6343</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C82" s="1" t="n">
@@ -1438,10 +1463,10 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="n">
+      <c r="A83" s="3" t="n">
         <v>4892</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C83" s="1" t="n">
@@ -1449,10 +1474,10 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1" t="n">
+      <c r="A84" s="3" t="n">
         <v>4877</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C84" s="1" t="n">
@@ -1460,10 +1485,10 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1" t="n">
+      <c r="A85" s="3" t="n">
         <v>4803</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C85" s="1" t="n">
@@ -1471,10 +1496,10 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C86" s="1" t="n">
@@ -1482,10 +1507,10 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1" t="n">
+      <c r="A87" s="5" t="n">
         <v>4924</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C87" s="1" t="n">
@@ -1493,10 +1518,10 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="1" t="n">
+      <c r="A88" s="3" t="n">
         <v>4802</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C88" s="1" t="n">
@@ -1504,10 +1529,10 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1" t="n">
+      <c r="A89" s="3" t="n">
         <v>4832</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C89" s="1" t="n">
@@ -1515,10 +1540,10 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1" t="n">
+      <c r="A90" s="3" t="n">
         <v>4824</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C90" s="1" t="n">
@@ -1526,10 +1551,10 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1" t="n">
+      <c r="A91" s="3" t="n">
         <v>4863</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C91" s="1" t="n">
@@ -1537,10 +1562,10 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="1" t="n">
+      <c r="A92" s="3" t="n">
         <v>4819</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C92" s="1" t="n">
@@ -1548,10 +1573,10 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1" t="n">
+      <c r="A93" s="3" t="n">
         <v>4864</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C93" s="1" t="n">
@@ -1559,10 +1584,10 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="1" t="n">
+      <c r="A94" s="3" t="n">
         <v>4869</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C94" s="1" t="n">
@@ -1570,10 +1595,10 @@
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1" t="n">
+      <c r="A95" s="3" t="n">
         <v>6292</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C95" s="1" t="n">
@@ -1581,10 +1606,10 @@
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1" t="n">
+      <c r="A96" s="3" t="n">
         <v>3550</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C96" s="1" t="n">
@@ -1592,10 +1617,10 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="1" t="n">
+      <c r="A97" s="3" t="n">
         <v>7517</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C97" s="1" t="n">
@@ -1603,10 +1628,10 @@
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1" t="n">
+      <c r="A98" s="3" t="n">
         <v>211210</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C98" s="1" t="n">
@@ -1614,10 +1639,10 @@
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1" t="n">
+      <c r="A99" s="3" t="n">
         <v>7501</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C99" s="1" t="n">
@@ -1625,10 +1650,10 @@
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1" t="n">
+      <c r="A100" s="3" t="n">
         <v>4793</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B100" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C100" s="1" t="n">
@@ -1636,10 +1661,10 @@
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1" t="n">
+      <c r="A101" s="3" t="n">
         <v>3743</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C101" s="1" t="n">
@@ -1647,10 +1672,10 @@
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="1" t="n">
+      <c r="A102" s="3" t="n">
         <v>3744</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B102" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C102" s="1" t="n">
@@ -1658,10 +1683,10 @@
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="1" t="n">
+      <c r="A103" s="3" t="n">
         <v>3745</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B103" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C103" s="1" t="n">
@@ -1669,10 +1694,10 @@
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="1" t="n">
+      <c r="A104" s="3" t="n">
         <v>3746</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B104" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C104" s="1" t="n">
@@ -1680,10 +1705,10 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="1" t="n">
+      <c r="A105" s="3" t="n">
         <v>3787</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B105" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C105" s="1" t="n">
@@ -1691,10 +1716,10 @@
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="1" t="n">
+      <c r="A106" s="5" t="n">
         <v>702182</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B106" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C106" s="1" t="n">
@@ -1702,10 +1727,10 @@
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="1" t="n">
+      <c r="A107" s="5" t="n">
         <v>702185</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B107" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C107" s="1" t="n">
@@ -1713,10 +1738,10 @@
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="1" t="n">
+      <c r="A108" s="5" t="n">
         <v>702187</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B108" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C108" s="1" t="n">
@@ -1724,10 +1749,10 @@
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="1" t="n">
+      <c r="A109" s="5" t="n">
         <v>702184</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B109" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C109" s="1" t="n">
@@ -1735,10 +1760,10 @@
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="1" t="n">
+      <c r="A110" s="5" t="n">
         <v>702183</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B110" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C110" s="1" t="n">
@@ -1746,10 +1771,10 @@
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="1" t="n">
+      <c r="A111" s="5" t="n">
         <v>702180</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B111" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C111" s="1" t="n">
@@ -1757,10 +1782,10 @@
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="1" t="n">
+      <c r="A112" s="5" t="n">
         <v>702188</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B112" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C112" s="1" t="n">
@@ -1768,10 +1793,10 @@
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="1" t="n">
+      <c r="A113" s="5" t="n">
         <v>702189</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B113" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C113" s="1" t="n">
@@ -1779,10 +1804,10 @@
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="1" t="n">
+      <c r="A114" s="3" t="n">
         <v>1091</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B114" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C114" s="1" t="n">
@@ -1790,10 +1815,10 @@
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="1" t="n">
+      <c r="A115" s="3" t="n">
         <v>1093</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B115" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C115" s="1" t="n">
@@ -1801,10 +1826,10 @@
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="1" t="n">
+      <c r="A116" s="3" t="n">
         <v>1278</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B116" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C116" s="1" t="n">
@@ -1812,10 +1837,10 @@
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="1" t="n">
+      <c r="A117" s="3" t="n">
         <v>1280</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B117" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C117" s="1" t="n">
@@ -1823,10 +1848,10 @@
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="1" t="n">
+      <c r="A118" s="6" t="n">
         <v>1070</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B118" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C118" s="1" t="n">
@@ -1834,10 +1859,10 @@
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="1" t="n">
+      <c r="A119" s="3" t="n">
         <v>1193</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B119" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C119" s="1" t="n">
@@ -1845,10 +1870,10 @@
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="1" t="n">
+      <c r="A120" s="5" t="n">
         <v>1032</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B120" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C120" s="1" t="n">
@@ -1856,10 +1881,10 @@
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="1" t="n">
+      <c r="A121" s="3" t="n">
         <v>1274</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B121" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C121" s="1" t="n">
@@ -1867,10 +1892,10 @@
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="1" t="n">
+      <c r="A122" s="3" t="n">
         <v>1275</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B122" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C122" s="1" t="n">
@@ -1878,10 +1903,10 @@
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="1" t="n">
+      <c r="A123" s="3" t="n">
         <v>1018</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B123" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C123" s="1" t="n">
@@ -1889,10 +1914,10 @@
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="1" t="n">
+      <c r="A124" s="3" t="n">
         <v>1197</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="B124" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C124" s="1" t="n">
@@ -1900,10 +1925,10 @@
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="1" t="n">
+      <c r="A125" s="3" t="n">
         <v>1102</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="B125" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C125" s="1" t="n">
@@ -1911,10 +1936,10 @@
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="1" t="n">
+      <c r="A126" s="3" t="n">
         <v>1111</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="B126" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C126" s="1" t="n">
@@ -1922,10 +1947,10 @@
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="1" t="n">
+      <c r="A127" s="5" t="n">
         <v>1127</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="B127" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C127" s="1" t="n">
@@ -1933,10 +1958,10 @@
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="1" t="n">
+      <c r="A128" s="3" t="n">
         <v>1128</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="B128" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C128" s="1" t="n">
@@ -1944,10 +1969,10 @@
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="1" t="n">
+      <c r="A129" s="3" t="n">
         <v>5370</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B129" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C129" s="1" t="n">
@@ -1955,10 +1980,10 @@
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="1" t="n">
+      <c r="A130" s="5" t="n">
         <v>5369</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="B130" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C130" s="1" t="n">
@@ -1966,10 +1991,10 @@
       </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="1" t="n">
+      <c r="A131" s="3" t="n">
         <v>453</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="B131" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C131" s="1" t="n">
@@ -1977,10 +2002,10 @@
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="1" t="n">
+      <c r="A132" s="3" t="n">
         <v>465</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="B132" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C132" s="1" t="n">
@@ -1988,10 +2013,10 @@
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="1" t="n">
+      <c r="A133" s="3" t="n">
         <v>5702</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="B133" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C133" s="1" t="n">
@@ -1999,10 +2024,10 @@
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="1" t="n">
+      <c r="A134" s="3" t="n">
         <v>5716</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="B134" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C134" s="1" t="n">
@@ -2010,10 +2035,10 @@
       </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="1" t="n">
+      <c r="A135" s="5" t="n">
         <v>5382</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="B135" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C135" s="1" t="n">
@@ -2021,10 +2046,10 @@
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="1" t="n">
+      <c r="A136" s="3" t="n">
         <v>5687</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="B136" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C136" s="1" t="n">
@@ -2032,10 +2057,10 @@
       </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="1" t="n">
+      <c r="A137" s="3" t="n">
         <v>1155</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="B137" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C137" s="1" t="n">
@@ -2043,10 +2068,10 @@
       </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="1" t="n">
+      <c r="A138" s="3" t="n">
         <v>1117</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="B138" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C138" s="1" t="n">
@@ -2054,10 +2079,10 @@
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="1" t="n">
+      <c r="A139" s="3" t="n">
         <v>1118</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="B139" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C139" s="1" t="n">
@@ -2065,10 +2090,10 @@
       </c>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="1" t="n">
+      <c r="A140" s="3" t="n">
         <v>1154</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="B140" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C140" s="1" t="n">
@@ -2076,10 +2101,10 @@
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="1" t="n">
+      <c r="A141" s="3" t="n">
         <v>1162</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="B141" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C141" s="1" t="n">
@@ -2087,10 +2112,10 @@
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="1" t="n">
+      <c r="A142" s="5" t="n">
         <v>1153</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="B142" s="5" t="s">
         <v>38</v>
       </c>
       <c r="C142" s="1" t="n">
@@ -2098,10 +2123,10 @@
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="1" t="n">
+      <c r="A143" s="5" t="n">
         <v>1133</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="B143" s="5" t="s">
         <v>38</v>
       </c>
       <c r="C143" s="1" t="n">
@@ -2109,10 +2134,10 @@
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="1" t="n">
+      <c r="A144" s="3" t="n">
         <v>1125</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="B144" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C144" s="1" t="n">
@@ -2120,10 +2145,10 @@
       </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="1" t="n">
+      <c r="A145" s="3" t="n">
         <v>1130</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="B145" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C145" s="1" t="n">
@@ -2131,10 +2156,10 @@
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="1" t="n">
+      <c r="A146" s="3" t="n">
         <v>1208</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="B146" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C146" s="1" t="n">
@@ -2142,10 +2167,10 @@
       </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="1" t="n">
+      <c r="A147" s="3" t="n">
         <v>1209</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="B147" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C147" s="1" t="n">
@@ -2153,10 +2178,10 @@
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="1" t="n">
+      <c r="A148" s="5" t="n">
         <v>5515</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="B148" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C148" s="1" t="n">
@@ -2164,10 +2189,10 @@
       </c>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="1" t="n">
+      <c r="A149" s="5" t="n">
         <v>5514</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="B149" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C149" s="1" t="n">
@@ -2175,10 +2200,10 @@
       </c>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="1" t="n">
+      <c r="A150" s="5" t="n">
         <v>5508</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="B150" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C150" s="1" t="n">
@@ -2186,10 +2211,10 @@
       </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="1" t="n">
+      <c r="A151" s="5" t="n">
         <v>5509</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="B151" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C151" s="1" t="n">
@@ -2197,10 +2222,10 @@
       </c>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="1" t="n">
+      <c r="A152" s="3" t="n">
         <v>5526</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="B152" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C152" s="1" t="n">
@@ -2208,10 +2233,10 @@
       </c>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="1" t="n">
+      <c r="A153" s="5" t="n">
         <v>5419</v>
       </c>
-      <c r="B153" s="1" t="s">
+      <c r="B153" s="5" t="s">
         <v>42</v>
       </c>
       <c r="C153" s="1" t="n">
@@ -2219,10 +2244,10 @@
       </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="1" t="n">
+      <c r="A154" s="3" t="n">
         <v>5425</v>
       </c>
-      <c r="B154" s="1" t="s">
+      <c r="B154" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C154" s="1" t="n">
@@ -2230,10 +2255,10 @@
       </c>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="1" t="n">
+      <c r="A155" s="3" t="n">
         <v>5464</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="B155" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C155" s="1" t="n">
@@ -2241,10 +2266,10 @@
       </c>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="1" t="n">
+      <c r="A156" s="5" t="n">
         <v>5561</v>
       </c>
-      <c r="B156" s="1" t="s">
+      <c r="B156" s="5" t="s">
         <v>42</v>
       </c>
       <c r="C156" s="1" t="n">
@@ -2252,10 +2277,10 @@
       </c>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="1" t="n">
+      <c r="A157" s="5" t="n">
         <v>1195</v>
       </c>
-      <c r="B157" s="1" t="s">
+      <c r="B157" s="5" t="s">
         <v>43</v>
       </c>
       <c r="C157" s="1" t="n">
@@ -2263,10 +2288,10 @@
       </c>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="1" t="n">
+      <c r="A158" s="5" t="n">
         <v>1196</v>
       </c>
-      <c r="B158" s="1" t="s">
+      <c r="B158" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C158" s="1" t="n">
@@ -2274,10 +2299,10 @@
       </c>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="1" t="n">
+      <c r="A159" s="3" t="n">
         <v>1243</v>
       </c>
-      <c r="B159" s="1" t="s">
+      <c r="B159" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C159" s="1" t="n">

--- a/data/common/excel/product_blistered.xlsx
+++ b/data/common/excel/product_blistered.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OPT10\PycharmProjects\optima-scrapper\data\common\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F69A06-17C0-48B4-8C2F-AE798A764C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-22830" yWindow="2010" windowWidth="15375" windowHeight="12255" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ARTICULOS EMBLISTADOS" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="ARTICULOS EMBLISTADOS" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,161 +27,158 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="49">
   <si>
-    <t xml:space="preserve">SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAMILIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CANTIDAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOT IN 16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COB RECTANGULAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FOCO DE CARRIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROYECTOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAMPANA UFO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAROLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COB CIRCULAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COB CUADRADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APLIQUE CON LED AR111 DOBLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APLIQUE CON LED AR111  TRIPLE</t>
+    <t>SKU</t>
+  </si>
+  <si>
+    <t>FAMILIA</t>
+  </si>
+  <si>
+    <t>CANTIDAD</t>
+  </si>
+  <si>
+    <t>NOT IN 16</t>
+  </si>
+  <si>
+    <t>COB RECTANGULAR</t>
+  </si>
+  <si>
+    <t>ita</t>
+  </si>
+  <si>
+    <t>FOCO DE CARRIL</t>
+  </si>
+  <si>
+    <t>PROYECTOR</t>
+  </si>
+  <si>
+    <t>CAMPANA UFO</t>
+  </si>
+  <si>
+    <t>FAROLA</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>COB CIRCULAR</t>
+  </si>
+  <si>
+    <t>COB CUADRADO</t>
+  </si>
+  <si>
+    <t>APLIQUE CON LED AR111 DOBLE</t>
+  </si>
+  <si>
+    <t>APLIQUE CON LED AR111  TRIPLE</t>
   </si>
   <si>
     <t xml:space="preserve">PROYECTOR </t>
   </si>
   <si>
-    <t xml:space="preserve">FAROLA ita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PORTALÁMPARAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LG02236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOWNLINGHT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LG02242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OPX4861</t>
+    <t>FAROLA ita</t>
+  </si>
+  <si>
+    <t>PORTALÁMPARAS</t>
+  </si>
+  <si>
+    <t>LG02236</t>
+  </si>
+  <si>
+    <t>DOWNLINGHT</t>
+  </si>
+  <si>
+    <t>LG02242</t>
+  </si>
+  <si>
+    <t>OPX4861</t>
   </si>
   <si>
     <t xml:space="preserve">COB </t>
   </si>
   <si>
-    <t xml:space="preserve">MINI COB REDONDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COB REDONDO</t>
+    <t>MINI COB REDONDO</t>
+  </si>
+  <si>
+    <t>COB REDONDO</t>
   </si>
   <si>
     <t xml:space="preserve">COB EN ÁNGULO </t>
   </si>
   <si>
-    <t xml:space="preserve">AR111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FUENTES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMPLIFICADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FOCO DE CARRL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APLIQUE FOCO DE CARRIL   OJO EN PLATA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APLIQUE DE CARRIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FOCO DE CARRIL APLIQUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APLIQUE AR-111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AROS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APLIQUE DE TECHO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOWNLINHT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APLIQUE DE PARED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOWNLINTH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOWNLINGHT   OJO EN PLATA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOWNLINGHT  SIN DRIVER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOWNLIMHT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROYECTOR CON SENSOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DRIVER</t>
+    <t>AR111</t>
+  </si>
+  <si>
+    <t>FUENTES</t>
+  </si>
+  <si>
+    <t>AMPLIFICADOR</t>
+  </si>
+  <si>
+    <t>FOCO DE CARRL</t>
+  </si>
+  <si>
+    <t>APLIQUE FOCO DE CARRIL   OJO EN PLATA</t>
+  </si>
+  <si>
+    <t>APLIQUE DE CARRIL</t>
+  </si>
+  <si>
+    <t>FOCO DE CARRIL APLIQUE</t>
+  </si>
+  <si>
+    <t>APLIQUE AR-111</t>
+  </si>
+  <si>
+    <t>AROS</t>
+  </si>
+  <si>
+    <t>APLIQUE DE TECHO</t>
+  </si>
+  <si>
+    <t>DOWNLINHT</t>
+  </si>
+  <si>
+    <t>APLIQUE DE PARED</t>
+  </si>
+  <si>
+    <t>DOWNLINTH</t>
+  </si>
+  <si>
+    <t>DOWNLINGHT   OJO EN PLATA</t>
+  </si>
+  <si>
+    <t>DOWNLINGHT  SIN DRIVER</t>
+  </si>
+  <si>
+    <t>DOWNLIMHT</t>
+  </si>
+  <si>
+    <t>PROYECTOR CON SENSOR</t>
+  </si>
+  <si>
+    <t>DRIVER</t>
   </si>
   <si>
     <t xml:space="preserve">APLIQUE DE PARED </t>
   </si>
   <si>
-    <t xml:space="preserve">PINCHO DE JARDÍN   OJO EN PLATA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SENSOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DICROICA GU10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CON EN ÁNGULO SIN CAJA INTERIOR</t>
+    <t>PINCHO DE JARDÍN   OJO EN PLATA</t>
+  </si>
+  <si>
+    <t>SENSOR</t>
+  </si>
+  <si>
+    <t>DICROICA GU10</t>
+  </si>
+  <si>
+    <t>CON EN ÁNGULO SIN CAJA INTERIOR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,22 +187,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -248,165 +235,70 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF127622"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF8D281E"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE6E905"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -465,60 +357,76 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546a"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="e7e6e6"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472c4"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ed7d31"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a5a5a5"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="ffc000"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5b9bd5"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70ad47"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563c1"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954f72"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -550,7 +458,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -574,7 +482,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -634,34 +542,33 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D159"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="34.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.88"/>
+    <col min="1" max="1" width="16.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -675,1851 +582,1846 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="n">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
         <v>1032</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="n">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
         <v>1070</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="2">
         <v>2</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="n">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
         <v>3564</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="2">
         <v>5</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="n">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
         <v>5357</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="2">
         <v>1</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="n">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
         <v>5369</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="2">
         <v>1</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="n">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
         <v>5382</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="2">
         <v>1</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="n">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
         <v>5514</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="C8" s="2">
         <v>1</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="n">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
         <v>5515</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="2">
         <v>2</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="n">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
         <v>5561</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="2">
         <v>1</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="n">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
         <v>1027</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="2">
         <v>1</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="n">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
         <v>1029</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="2">
         <v>2</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="n">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
         <v>1058</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="2" t="n">
+      <c r="C13" s="2">
         <v>3</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="n">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
         <v>1085</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="2" t="n">
+      <c r="C14" s="2">
         <v>1</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="n">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
         <v>1127</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="2" t="n">
+      <c r="C15" s="2">
         <v>2</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="n">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
         <v>1133</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="2" t="n">
+      <c r="C16" s="2">
         <v>1</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="n">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
         <v>1195</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="2" t="n">
+      <c r="C17" s="2">
         <v>1</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11" t="n">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
         <v>1196</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="2" t="n">
+      <c r="C18" s="2">
         <v>1</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="11" t="n">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
         <v>1204</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="2" t="n">
+      <c r="C19" s="2">
         <v>1</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="11" t="n">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
         <v>5321</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="2" t="n">
+      <c r="C20" s="2">
         <v>5</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="11" t="n">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
         <v>5419</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="2" t="n">
+      <c r="C21" s="2">
         <v>1</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="11" t="n">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
         <v>5508</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="2" t="n">
+      <c r="C22" s="2">
         <v>1</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="11" t="n">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
         <v>5509</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="2" t="n">
+      <c r="C23" s="2">
         <v>2</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="11" t="n">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
         <v>702180</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="2" t="n">
+      <c r="C24" s="2">
         <v>1</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="11" t="n">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
         <v>702182</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="2" t="n">
+      <c r="C25" s="2">
         <v>1</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="11" t="n">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
         <v>702183</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="2" t="n">
+      <c r="C26" s="2">
         <v>1</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="11" t="n">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
         <v>702184</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="2" t="n">
+      <c r="C27" s="2">
         <v>1</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="11" t="n">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
         <v>702185</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="2" t="n">
+      <c r="C28" s="2">
         <v>1</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="11" t="n">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
         <v>702187</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="2" t="n">
+      <c r="C29" s="2">
         <v>1</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="11" t="n">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
         <v>702188</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="2" t="n">
+      <c r="C30" s="2">
         <v>1</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="11" t="n">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
         <v>702189</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="2" t="n">
+      <c r="C31" s="2">
         <v>3</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B32" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="2" t="n">
+      <c r="C32" s="2">
         <v>3</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="2" t="n">
+      <c r="C33" s="2">
         <v>3</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B34" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="2" t="n">
+      <c r="C34" s="2">
         <v>3</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="13" t="n">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="13">
         <v>453</v>
       </c>
       <c r="B35" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="13" t="n">
+      <c r="C35" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="13">
         <v>465</v>
       </c>
       <c r="B36" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="13" t="n">
+      <c r="C36" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="13">
         <v>1018</v>
       </c>
       <c r="B37" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="13" t="n">
+      <c r="C37" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="13">
         <v>1091</v>
       </c>
       <c r="B38" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C38" s="2" t="n">
+      <c r="C38" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="13" t="n">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="13">
         <v>1093</v>
       </c>
       <c r="B39" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="13" t="n">
+      <c r="C39" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="13">
         <v>1102</v>
       </c>
       <c r="B40" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="2" t="n">
+      <c r="C40" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="13" t="n">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="13">
         <v>1111</v>
       </c>
       <c r="B41" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C41" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="13" t="n">
+      <c r="C41" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="13">
         <v>1113</v>
       </c>
       <c r="B42" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C42" s="2" t="n">
+      <c r="C42" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="13" t="n">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="13">
         <v>1115</v>
       </c>
       <c r="B43" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C43" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="13" t="n">
+      <c r="C43" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="13">
         <v>1116</v>
       </c>
       <c r="B44" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C44" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="13" t="n">
+      <c r="C44" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="13">
         <v>1117</v>
       </c>
       <c r="B45" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C45" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="13" t="n">
+      <c r="C45" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="13">
         <v>1118</v>
       </c>
       <c r="B46" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C46" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="13" t="n">
+      <c r="C46" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="13">
         <v>1125</v>
       </c>
       <c r="B47" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C47" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="13" t="n">
+      <c r="C47" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="13">
         <v>1128</v>
       </c>
       <c r="B48" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C48" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="13" t="n">
+      <c r="C48" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="13">
         <v>1130</v>
       </c>
       <c r="B49" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C49" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="13" t="n">
+      <c r="C49" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="13">
         <v>1153</v>
       </c>
       <c r="B50" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C50" s="2" t="n">
+      <c r="C50" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="13" t="n">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="13">
         <v>1154</v>
       </c>
       <c r="B51" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C51" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="13" t="n">
+      <c r="C51" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="13">
         <v>1155</v>
       </c>
       <c r="B52" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C52" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="13" t="n">
+      <c r="C52" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="13">
         <v>1162</v>
       </c>
       <c r="B53" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C53" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="13" t="n">
+      <c r="C53" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="13">
         <v>1193</v>
       </c>
       <c r="B54" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C54" s="2" t="n">
+      <c r="C54" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="13" t="n">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="13">
         <v>1197</v>
       </c>
       <c r="B55" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C55" s="2" t="n">
+      <c r="C55" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="13" t="n">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="13">
         <v>1200</v>
       </c>
       <c r="B56" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C56" s="2" t="n">
+      <c r="C56" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="13" t="n">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="13">
         <v>1202</v>
       </c>
       <c r="B57" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C57" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="13" t="n">
+      <c r="C57" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="13">
         <v>1205</v>
       </c>
       <c r="B58" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C58" s="2" t="n">
+      <c r="C58" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="13" t="n">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="13">
         <v>1208</v>
       </c>
       <c r="B59" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C59" s="2" t="n">
+      <c r="C59" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="13" t="n">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="13">
         <v>1209</v>
       </c>
       <c r="B60" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C60" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="13" t="n">
+      <c r="C60" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="13">
         <v>1229</v>
       </c>
       <c r="B61" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C61" s="2" t="n">
+      <c r="C61" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="13" t="n">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="13">
         <v>1231</v>
       </c>
       <c r="B62" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C62" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="13" t="n">
+      <c r="C62" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="13">
         <v>1237</v>
       </c>
       <c r="B63" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C63" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="13" t="n">
+      <c r="C63" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="13">
         <v>1243</v>
       </c>
       <c r="B64" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C64" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="13" t="n">
+      <c r="C64" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="13">
         <v>1246</v>
       </c>
       <c r="B65" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C65" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="13" t="n">
+      <c r="C65" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="13">
         <v>1252</v>
       </c>
       <c r="B66" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C66" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="13" t="n">
+      <c r="C66" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="13">
         <v>1253</v>
       </c>
       <c r="B67" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C67" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="13" t="n">
+      <c r="C67" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="13">
         <v>1274</v>
       </c>
       <c r="B68" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C68" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="13" t="n">
+      <c r="C68" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="13">
         <v>1275</v>
       </c>
       <c r="B69" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C69" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="13" t="n">
+      <c r="C69" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="13">
         <v>1278</v>
       </c>
       <c r="B70" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C70" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="13" t="n">
+      <c r="C70" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="13">
         <v>1280</v>
       </c>
       <c r="B71" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C71" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="13" t="n">
+      <c r="C71" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="13">
         <v>1413</v>
       </c>
       <c r="B72" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C72" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="13" t="n">
+      <c r="C72" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="13">
         <v>3248</v>
       </c>
       <c r="B73" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C73" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="13" t="n">
+      <c r="C73" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="13">
         <v>3253</v>
       </c>
       <c r="B74" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C74" s="2" t="n">
+      <c r="C74" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="13" t="n">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="13">
         <v>3259</v>
       </c>
       <c r="B75" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C75" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="13" t="n">
+      <c r="C75" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="13">
         <v>3273</v>
       </c>
       <c r="B76" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C76" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="13" t="n">
+      <c r="C76" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="13">
         <v>3309</v>
       </c>
       <c r="B77" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C77" s="2" t="n">
+      <c r="C77" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="13" t="n">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="13">
         <v>3327</v>
       </c>
       <c r="B78" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C78" s="2" t="n">
+      <c r="C78" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="13" t="n">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="13">
         <v>3544</v>
       </c>
       <c r="B79" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C79" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="13" t="n">
+      <c r="C79" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="13">
         <v>3545</v>
       </c>
       <c r="B80" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C80" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="13" t="n">
+      <c r="C80" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="13">
         <v>3547</v>
       </c>
       <c r="B81" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C81" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="13" t="n">
+      <c r="C81" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="13">
         <v>3550</v>
       </c>
       <c r="B82" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C82" s="2" t="n">
+      <c r="C82" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="13" t="n">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="13">
         <v>3551</v>
       </c>
       <c r="B83" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C83" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="13" t="n">
+      <c r="C83" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="13">
         <v>3552</v>
       </c>
       <c r="B84" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C84" s="2" t="n">
+      <c r="C84" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="13" t="n">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="13">
         <v>3554</v>
       </c>
       <c r="B85" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C85" s="2" t="n">
+      <c r="C85" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="13" t="n">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="13">
         <v>3558</v>
       </c>
       <c r="B86" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C86" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="13" t="n">
+      <c r="C86" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="13">
         <v>3563</v>
       </c>
       <c r="B87" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C87" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="13" t="n">
+      <c r="C87" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="13">
         <v>3567</v>
       </c>
       <c r="B88" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C88" s="2" t="n">
+      <c r="C88" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="13" t="n">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="13">
         <v>3569</v>
       </c>
       <c r="B89" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C89" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="13" t="n">
+      <c r="C89" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="13">
         <v>3570</v>
       </c>
       <c r="B90" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C90" s="2" t="n">
+      <c r="C90" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="13" t="n">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="13">
         <v>3581</v>
       </c>
       <c r="B91" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C91" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="13" t="n">
+      <c r="C91" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="13">
         <v>3595</v>
       </c>
       <c r="B92" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C92" s="2" t="n">
+      <c r="C92" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="13" t="n">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="13">
         <v>3628</v>
       </c>
       <c r="B93" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C93" s="2" t="n">
+      <c r="C93" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="13" t="n">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="13">
         <v>3743</v>
       </c>
       <c r="B94" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C94" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="13" t="n">
+      <c r="C94" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="13">
         <v>3744</v>
       </c>
       <c r="B95" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C95" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="13" t="n">
+      <c r="C95" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="13">
         <v>3745</v>
       </c>
       <c r="B96" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C96" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="13" t="n">
+      <c r="C96" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="13">
         <v>3746</v>
       </c>
       <c r="B97" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C97" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="13" t="n">
+      <c r="C97" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="13">
         <v>3748</v>
       </c>
       <c r="B98" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C98" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="13" t="n">
+      <c r="C98" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="13">
         <v>3749</v>
       </c>
       <c r="B99" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C99" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="13" t="n">
+      <c r="C99" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="13">
         <v>3750</v>
       </c>
       <c r="B100" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C100" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="13" t="n">
+      <c r="C100" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="13">
         <v>3782</v>
       </c>
       <c r="B101" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C101" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="13" t="n">
+      <c r="C101" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="13">
         <v>3784</v>
       </c>
       <c r="B102" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C102" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="13" t="n">
+      <c r="C102" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="13">
         <v>3785</v>
       </c>
       <c r="B103" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C103" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="13" t="n">
+      <c r="C103" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="13">
         <v>3787</v>
       </c>
       <c r="B104" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C104" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="13" t="n">
+      <c r="C104" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="13">
         <v>3866</v>
       </c>
       <c r="B105" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C105" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="13" t="n">
+      <c r="C105" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="13">
         <v>4062</v>
       </c>
       <c r="B106" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C106" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="13" t="n">
+      <c r="C106" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="13">
         <v>4224</v>
       </c>
       <c r="B107" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C107" s="2" t="n">
+      <c r="C107" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="13" t="n">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="13">
         <v>4255</v>
       </c>
       <c r="B108" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C108" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="13" t="n">
+      <c r="C108" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="13">
         <v>4759</v>
       </c>
       <c r="B109" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C109" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="13" t="n">
+      <c r="C109" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="13">
         <v>4793</v>
       </c>
       <c r="B110" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C110" s="2" t="n">
+      <c r="C110" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="13" t="n">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="13">
         <v>4802</v>
       </c>
       <c r="B111" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C111" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="13" t="n">
+      <c r="C111" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="13">
         <v>4803</v>
       </c>
       <c r="B112" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C112" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="13" t="n">
+      <c r="C112" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="13">
         <v>4819</v>
       </c>
       <c r="B113" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C113" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="13" t="n">
+      <c r="C113" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="13">
         <v>4823</v>
       </c>
       <c r="B114" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C114" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="13" t="n">
+      <c r="C114" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="13">
         <v>4824</v>
       </c>
       <c r="B115" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C115" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="13" t="n">
+      <c r="C115" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="13">
         <v>4826</v>
       </c>
       <c r="B116" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C116" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="13" t="n">
+      <c r="C116" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="13">
         <v>4828</v>
       </c>
       <c r="B117" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C117" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="13" t="n">
+      <c r="C117" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="13">
         <v>4832</v>
       </c>
       <c r="B118" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C118" s="2" t="n">
+      <c r="C118" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="13" t="n">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="13">
         <v>4855</v>
       </c>
       <c r="B119" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C119" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="13" t="n">
+      <c r="C119" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="13">
         <v>4856</v>
       </c>
       <c r="B120" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C120" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="13" t="n">
+      <c r="C120" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="13">
         <v>4863</v>
       </c>
       <c r="B121" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C121" s="2" t="n">
+      <c r="C121" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="13" t="n">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="13">
         <v>4864</v>
       </c>
       <c r="B122" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C122" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="13" t="n">
+      <c r="C122" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="13">
         <v>4869</v>
       </c>
       <c r="B123" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C123" s="2" t="n">
+      <c r="C123" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="13" t="n">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="13">
         <v>4873</v>
       </c>
       <c r="B124" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C124" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="13" t="n">
+      <c r="C124" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="13">
         <v>4877</v>
       </c>
       <c r="B125" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C125" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="13" t="n">
+      <c r="C125" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="13">
         <v>4879</v>
       </c>
       <c r="B126" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C126" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="13" t="n">
+      <c r="C126" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="13">
         <v>4890</v>
       </c>
       <c r="B127" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C127" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="13" t="n">
+      <c r="C127" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="13">
         <v>4892</v>
       </c>
       <c r="B128" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C128" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="13" t="n">
+      <c r="C128" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="13">
         <v>4894</v>
       </c>
       <c r="B129" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C129" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="13" t="n">
+      <c r="C129" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="13">
         <v>4924</v>
       </c>
       <c r="B130" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C130" s="2" t="n">
+      <c r="C130" s="2">
         <v>1</v>
       </c>
       <c r="D130" s="8"/>
     </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="13" t="n">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="13">
         <v>4931</v>
       </c>
       <c r="B131" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C131" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="13" t="n">
+      <c r="C131" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="13">
         <v>4934</v>
       </c>
       <c r="B132" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C132" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="13" t="n">
+      <c r="C132" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="13">
         <v>4935</v>
       </c>
       <c r="B133" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C133" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="13" t="n">
+      <c r="C133" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="13">
         <v>4948</v>
       </c>
       <c r="B134" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C134" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="13" t="n">
+      <c r="C134" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="13">
         <v>4949</v>
       </c>
       <c r="B135" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C135" s="2" t="n">
+      <c r="C135" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="13" t="n">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="13">
         <v>5356</v>
       </c>
       <c r="B136" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C136" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="13" t="n">
+      <c r="C136" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="13">
         <v>5370</v>
       </c>
       <c r="B137" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C137" s="2" t="n">
+      <c r="C137" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="13" t="n">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="13">
         <v>5425</v>
       </c>
       <c r="B138" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C138" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="13" t="n">
+      <c r="C138" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="13">
         <v>5464</v>
       </c>
       <c r="B139" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C139" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="13" t="n">
+      <c r="C139" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="13">
         <v>5526</v>
       </c>
       <c r="B140" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C140" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="13" t="n">
+      <c r="C140" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="13">
         <v>5687</v>
       </c>
       <c r="B141" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C141" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="13" t="n">
+      <c r="C141" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="13">
         <v>5702</v>
       </c>
       <c r="B142" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C142" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="13" t="n">
+      <c r="C142" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="13">
         <v>5716</v>
       </c>
       <c r="B143" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C143" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="13" t="n">
+      <c r="C143" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="13">
         <v>5724</v>
       </c>
       <c r="B144" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C144" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="13" t="n">
+      <c r="C144" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="13">
         <v>6218</v>
       </c>
       <c r="B145" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C145" s="2" t="n">
+      <c r="C145" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="13" t="n">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="13">
         <v>6219</v>
       </c>
       <c r="B146" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C146" s="2" t="n">
+      <c r="C146" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="13" t="n">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="13">
         <v>6292</v>
       </c>
       <c r="B147" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C147" s="2" t="n">
+      <c r="C147" s="2">
         <v>34</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="13" t="n">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="13">
         <v>6343</v>
       </c>
       <c r="B148" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C148" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="13" t="n">
+      <c r="C148" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="13">
         <v>7077</v>
       </c>
       <c r="B149" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C149" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="13" t="n">
+      <c r="C149" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="13">
         <v>7082</v>
       </c>
       <c r="B150" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C150" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="13" t="n">
+      <c r="C150" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="13">
         <v>7088</v>
       </c>
       <c r="B151" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C151" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="13" t="n">
+      <c r="C151" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="13">
         <v>7089</v>
       </c>
       <c r="B152" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C152" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="13" t="n">
+      <c r="C152" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="13">
         <v>7090</v>
       </c>
       <c r="B153" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C153" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="13" t="n">
+      <c r="C153" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="13">
         <v>7501</v>
       </c>
       <c r="B154" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C154" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="13" t="n">
+      <c r="C154" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="13">
         <v>7517</v>
       </c>
       <c r="B155" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C155" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="13" t="n">
+      <c r="C155" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="13">
         <v>8221</v>
       </c>
       <c r="B156" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C156" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="13" t="n">
+      <c r="C156" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="13">
         <v>15031</v>
       </c>
       <c r="B157" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C157" s="2" t="n">
+      <c r="C157" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="13" t="n">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="13">
         <v>21880</v>
       </c>
       <c r="B158" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C158" s="2" t="n">
+      <c r="C158" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="13" t="n">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="13">
         <v>211210</v>
       </c>
       <c r="B159" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C159" s="2" t="n">
+      <c r="C159" s="2">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>